--- a/modeloFinal.xlsx
+++ b/modeloFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30252A5E-A739-408A-88F9-B0C1F69636B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BA5682-44BD-459D-951C-9514EE127586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{058B9F16-82D8-4B35-8208-23A7B386398C}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>Relatório de Não Conformidades e Ações Corretivas.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -102,16 +99,41 @@
   </si>
   <si>
     <t>Última atualização</t>
+  </si>
+  <si>
+    <t>Relatório de Não Conformidades e Ações Corretivas</t>
+  </si>
+  <si>
+    <t>Código:</t>
+  </si>
+  <si>
+    <t>RQ GQ-014-000</t>
+  </si>
+  <si>
+    <t>Data de Emissão:</t>
+  </si>
+  <si>
+    <t>Gestão da Qualidade</t>
+  </si>
+  <si>
+    <t>Data da Última Revisão:</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Página:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +179,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -184,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -244,11 +290,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,20 +426,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -311,6 +480,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2184400" cy="771525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC26195-F6B8-4484-BD99-9689A9C9AC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="688975"/>
+          <a:ext cx="2184400" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,10 +825,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1018"/>
+  <dimension ref="A2:F1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -625,216 +837,228 @@
     <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="2" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="27">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="30">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -938,7 +1162,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -948,57 +1172,85 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1970,30 +2222,37 @@
     <row r="1016" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1017" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1018" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+  <mergeCells count="22">
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="B4:D5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>